--- a/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,18 +21,6 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Non-voters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Center/Right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -70,11 +58,12 @@
     <t xml:space="preserve">Prefers sustainable future</t>
   </si>
   <si>
-    <t xml:space="preserve">"Governments should actively cooperate to have
-all countries converge in terms of GDP per capita by the end of the century"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Could sign a petition and spread ideas</t>
+    <t xml:space="preserve">"Governments should actively cooperate to have all countries
+converge in terms of GDP per capita by the end of the century"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Would support a global movement to tackle CC, tax millionaires,
+ and fund LICs (either petition, demonstrate, strike, or donate)</t>
   </si>
   <si>
     <t xml:space="preserve">More likely to vote for party if part of worldwide
@@ -451,379 +440,271 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0.548749204972874</v>
+        <v>0.556007222541788</v>
       </c>
       <c r="C2" t="n">
-        <v>0.366613390750273</v>
+        <v>0.392706735271895</v>
       </c>
       <c r="D2" t="n">
-        <v>0.583987178202389</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="E2" t="n">
-        <v>0.809444964341555</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="F2" t="n">
-        <v>0.502893565174609</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="G2" t="n">
-        <v>0.484386429576709</v>
+        <v>0.677827112481047</v>
       </c>
       <c r="H2" t="n">
-        <v>0.356013330649719</v>
+        <v>0.743498584988873</v>
       </c>
       <c r="I2" t="n">
-        <v>0.508382107274219</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="J2" t="n">
-        <v>0.451398568187944</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="K2" t="n">
-        <v>0.677827112481047</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.743498584988873</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.503559387678212</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.636870250532107</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.373907558453907</v>
+        <v>0.373993319775201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0.488009346515533</v>
+        <v>0.50312291438834</v>
       </c>
       <c r="C3" t="n">
-        <v>0.304486035670833</v>
+        <v>0.316198486427608</v>
       </c>
       <c r="D3" t="n">
-        <v>0.513014491525721</v>
+        <v>0.34215953895184</v>
       </c>
       <c r="E3" t="n">
-        <v>0.71931115965366</v>
+        <v>0.455068700122256</v>
       </c>
       <c r="F3" t="n">
-        <v>0.495264748486105</v>
+        <v>0.306824263084082</v>
       </c>
       <c r="G3" t="n">
-        <v>0.440316456384772</v>
+        <v>0.671355992475847</v>
       </c>
       <c r="H3" t="n">
-        <v>0.342128267431882</v>
+        <v>0.73716679715381</v>
       </c>
       <c r="I3" t="n">
-        <v>0.454830804343478</v>
+        <v>0.455679906453223</v>
       </c>
       <c r="J3" t="n">
-        <v>0.306878691636744</v>
+        <v>0.566496834134014</v>
       </c>
       <c r="K3" t="n">
-        <v>0.671355992475847</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.73716679715381</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.45566201329143</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.566039039099673</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0.339022055208755</v>
+        <v>0.339067925103543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0.679366394096195</v>
+        <v>0.680881448179833</v>
       </c>
       <c r="C4" t="n">
-        <v>0.595648253088616</v>
+        <v>0.616567982061628</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680987204503282</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="E4" t="n">
-        <v>0.831184500933943</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695788344040076</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538162773640089</v>
+        <v>0.713280127381035</v>
       </c>
       <c r="H4" t="n">
-        <v>0.743500976587183</v>
+        <v>0.703520370125625</v>
       </c>
       <c r="I4" t="n">
-        <v>0.81462228490617</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="J4" t="n">
-        <v>0.756962294490717</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="K4" t="n">
-        <v>0.713280127381035</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.703520370125625</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.671406780430398</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.776812968723143</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.425499404919733</v>
+        <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0.582407081968796</v>
+        <v>0.609601586795904</v>
       </c>
       <c r="C5" t="n">
-        <v>0.440671030859726</v>
+        <v>0.459499864440356</v>
       </c>
       <c r="D5" t="n">
-        <v>0.616661919613841</v>
+        <v>0.529969608967456</v>
       </c>
       <c r="E5" t="n">
-        <v>0.791367358009102</v>
+        <v>0.619684579205792</v>
       </c>
       <c r="F5" t="n">
-        <v>0.647850068391449</v>
+        <v>0.581343297592584</v>
       </c>
       <c r="G5" t="n">
-        <v>0.562087374904841</v>
+        <v>0.756844881931732</v>
       </c>
       <c r="H5" t="n">
-        <v>0.529885434677782</v>
+        <v>0.822839088961434</v>
       </c>
       <c r="I5" t="n">
-        <v>0.619694338952137</v>
+        <v>0.529112697724995</v>
       </c>
       <c r="J5" t="n">
-        <v>0.581289088318094</v>
+        <v>0.580830159607851</v>
       </c>
       <c r="K5" t="n">
-        <v>0.756844881931732</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.822839088961434</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.529363660067618</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.581144289159245</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.389096341662054</v>
+        <v>0.389019482696932</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0.517681293588919</v>
+        <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.37450861498383</v>
+        <v>0.523930159271177</v>
       </c>
       <c r="D6" t="n">
-        <v>0.54400229948967</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="E6" t="n">
-        <v>0.661278534958537</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="F6" t="n">
-        <v>0.497096533902024</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="G6" t="n">
-        <v>0.442405137881287</v>
+        <v>0.727098526374066</v>
       </c>
       <c r="H6" t="n">
-        <v>0.389456592496737</v>
+        <v>0.741985444624183</v>
       </c>
       <c r="I6" t="n">
-        <v>0.639772161098881</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="J6" t="n">
-        <v>0.541929639804469</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="K6" t="n">
-        <v>0.404576421408372</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.407592835762763</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.489892191381658</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0.654584229780058</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.324832521986835</v>
+        <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0.364700740506257</v>
+        <v>0.364717906507653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.301437840047023</v>
+        <v>0.301242387158432</v>
       </c>
       <c r="D7" t="n">
-        <v>0.347757564445013</v>
+        <v>0.163327499246366</v>
       </c>
       <c r="E7" t="n">
-        <v>0.612564469882184</v>
+        <v>0.313179598308858</v>
       </c>
       <c r="F7" t="n">
-        <v>0.329076922032927</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.266032348749018</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.163374634470308</v>
-      </c>
+        <v>0.218483573122562</v>
+      </c>
+      <c r="G7"/>
+      <c r="H7"/>
       <c r="I7" t="n">
-        <v>0.313128420422624</v>
+        <v>0.283095421815601</v>
       </c>
       <c r="J7" t="n">
-        <v>0.218439546291854</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7"/>
-      <c r="M7" t="n">
-        <v>0.282837312902432</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0.521302744077032</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.271064836019934</v>
+        <v>0.52122515690493</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.27084855688435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0.347856888878235</v>
+        <v>0.347853243460036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.261828422049271</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.393011358029993</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.540846531529226</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.236110214107178</v>
-      </c>
+        <v>0.262527011404327</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+      <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8" t="n">
-        <v>0.31201873214884</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0.450138037793688</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0.174002494177101</v>
+      <c r="I8" t="n">
+        <v>0.311745273790548</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.450524011973634</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.173904958357855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0.414163491723958</v>
+        <v>0.410626908494325</v>
       </c>
       <c r="C9" t="n">
-        <v>0.396411998512916</v>
+        <v>0.393121093071121</v>
       </c>
       <c r="D9" t="n">
-        <v>0.37990538035527</v>
+        <v>0.282669471326983</v>
       </c>
       <c r="E9" t="n">
-        <v>0.606618681027554</v>
+        <v>0.376571407830385</v>
       </c>
       <c r="F9" t="n">
-        <v>0.404741669455715</v>
+        <v>0.32600471502799</v>
       </c>
       <c r="G9" t="n">
-        <v>0.296470179474792</v>
+        <v>0.662536527281334</v>
       </c>
       <c r="H9" t="n">
-        <v>0.282576495496765</v>
+        <v>0.698489352155402</v>
       </c>
       <c r="I9" t="n">
-        <v>0.376409725924188</v>
+        <v>0.362475436951784</v>
       </c>
       <c r="J9" t="n">
-        <v>0.325947806714271</v>
+        <v>0.535384805366787</v>
       </c>
       <c r="K9" t="n">
-        <v>0.662536527281334</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.698489352155402</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.362460536490887</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.536101382797469</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0.265773612275098</v>
+        <v>0.265617828927838</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -21,6 +21,18 @@
   </si>
   <si>
     <t xml:space="preserve">Millionaires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Non-voters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Center/Right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe Far right</t>
   </si>
   <si>
     <t xml:space="preserve">Japan Non-voters</t>
@@ -440,10 +452,22 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B2" t="n">
         <v>0.556007222541788</v>
@@ -452,33 +476,45 @@
         <v>0.392706735271895</v>
       </c>
       <c r="D2" t="n">
+        <v>0.583987178202389</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.809444964341555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.502893565174609</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.484386429576709</v>
+      </c>
+      <c r="H2" t="n">
         <v>0.356105750421195</v>
       </c>
-      <c r="E2" t="n">
+      <c r="I2" t="n">
         <v>0.508432438341536</v>
       </c>
-      <c r="F2" t="n">
+      <c r="J2" t="n">
         <v>0.451519556659133</v>
       </c>
-      <c r="G2" t="n">
+      <c r="K2" t="n">
         <v>0.677827112481047</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
         <v>0.743498584988873</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
         <v>0.503741905167505</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>0.637096655800029</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
         <v>0.373993319775201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B3" t="n">
         <v>0.50312291438834</v>
@@ -487,33 +523,45 @@
         <v>0.316198486427608</v>
       </c>
       <c r="D3" t="n">
+        <v>0.513014491525721</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.71931115965366</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.495264748486105</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.440316456384772</v>
+      </c>
+      <c r="H3" t="n">
         <v>0.34215953895184</v>
       </c>
-      <c r="E3" t="n">
+      <c r="I3" t="n">
         <v>0.455068700122256</v>
       </c>
-      <c r="F3" t="n">
+      <c r="J3" t="n">
         <v>0.306824263084082</v>
       </c>
-      <c r="G3" t="n">
+      <c r="K3" t="n">
         <v>0.671355992475847</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
         <v>0.73716679715381</v>
       </c>
-      <c r="I3" t="n">
+      <c r="M3" t="n">
         <v>0.455679906453223</v>
       </c>
-      <c r="J3" t="n">
+      <c r="N3" t="n">
         <v>0.566496834134014</v>
       </c>
-      <c r="K3" t="n">
+      <c r="O3" t="n">
         <v>0.339067925103543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
         <v>0.680881448179833</v>
@@ -522,68 +570,92 @@
         <v>0.616567982061628</v>
       </c>
       <c r="D4" t="n">
+        <v>0.680987204503282</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.831184500933943</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.695788344040076</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.538162773640089</v>
+      </c>
+      <c r="H4" t="n">
         <v>0.743644347389163</v>
       </c>
-      <c r="E4" t="n">
+      <c r="I4" t="n">
         <v>0.814701212857562</v>
       </c>
-      <c r="F4" t="n">
+      <c r="J4" t="n">
         <v>0.757048871605567</v>
       </c>
-      <c r="G4" t="n">
-        <v>0.713280127381035</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
+        <v>0.721853509181885</v>
+      </c>
+      <c r="L4" t="n">
         <v>0.703520370125625</v>
       </c>
-      <c r="I4" t="n">
+      <c r="M4" t="n">
         <v>0.671270631778761</v>
       </c>
-      <c r="J4" t="n">
+      <c r="N4" t="n">
         <v>0.776836935461012</v>
       </c>
-      <c r="K4" t="n">
+      <c r="O4" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.609601586795904</v>
+        <v>0.704965329416964</v>
       </c>
       <c r="C5" t="n">
-        <v>0.459499864440356</v>
+        <v>0.501352982535347</v>
       </c>
       <c r="D5" t="n">
-        <v>0.529969608967456</v>
+        <v>0.787483813023996</v>
       </c>
       <c r="E5" t="n">
-        <v>0.619684579205792</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="F5" t="n">
-        <v>0.581343297592584</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="G5" t="n">
-        <v>0.756844881931732</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="H5" t="n">
-        <v>0.822839088961434</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="I5" t="n">
-        <v>0.529112697724995</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="J5" t="n">
-        <v>0.580830159607851</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="K5" t="n">
-        <v>0.389019482696932</v>
+        <v>0.92816201896394</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.938466265662205</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.688883535477258</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.68963486840272</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B6" t="n">
         <v>0.675595447215337</v>
@@ -592,33 +664,45 @@
         <v>0.523930159271177</v>
       </c>
       <c r="D6" t="n">
+        <v>0.709363981944143</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.892471876813608</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.637051467662211</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.578161277543308</v>
+      </c>
+      <c r="H6" t="n">
         <v>0.433349195600366</v>
       </c>
-      <c r="E6" t="n">
+      <c r="I6" t="n">
         <v>0.696851480613757</v>
       </c>
-      <c r="F6" t="n">
+      <c r="J6" t="n">
         <v>0.583790255087382</v>
       </c>
-      <c r="G6" t="n">
-        <v>0.727098526374066</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="K6" t="n">
+        <v>0.729122438104651</v>
+      </c>
+      <c r="L6" t="n">
         <v>0.741985444624183</v>
       </c>
-      <c r="I6" t="n">
+      <c r="M6" t="n">
         <v>0.641824096726743</v>
       </c>
-      <c r="J6" t="n">
+      <c r="N6" t="n">
         <v>0.834461320073758</v>
       </c>
-      <c r="K6" t="n">
+      <c r="O6" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B7" t="n">
         <v>0.364717906507653</v>
@@ -627,29 +711,41 @@
         <v>0.301242387158432</v>
       </c>
       <c r="D7" t="n">
+        <v>0.347757564445013</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.612564469882184</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.329076922032927</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.266032348749018</v>
+      </c>
+      <c r="H7" t="n">
         <v>0.163327499246366</v>
       </c>
-      <c r="E7" t="n">
+      <c r="I7" t="n">
         <v>0.313179598308858</v>
       </c>
-      <c r="F7" t="n">
+      <c r="J7" t="n">
         <v>0.218483573122562</v>
       </c>
-      <c r="G7"/>
-      <c r="H7"/>
-      <c r="I7" t="n">
+      <c r="K7"/>
+      <c r="L7"/>
+      <c r="M7" t="n">
         <v>0.283095421815601</v>
       </c>
-      <c r="J7" t="n">
+      <c r="N7" t="n">
         <v>0.52122515690493</v>
       </c>
-      <c r="K7" t="n">
+      <c r="O7" t="n">
         <v>0.27084855688435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>0.347853243460036</v>
@@ -657,24 +753,36 @@
       <c r="C8" t="n">
         <v>0.262527011404327</v>
       </c>
-      <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
+      <c r="D8" t="n">
+        <v>0.393011358029993</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.540846531529226</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.30076097129752</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.236110214107178</v>
+      </c>
       <c r="H8"/>
-      <c r="I8" t="n">
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8" t="n">
         <v>0.311745273790548</v>
       </c>
-      <c r="J8" t="n">
+      <c r="N8" t="n">
         <v>0.450524011973634</v>
       </c>
-      <c r="K8" t="n">
+      <c r="O8" t="n">
         <v>0.173904958357855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B9" t="n">
         <v>0.410626908494325</v>
@@ -683,27 +791,39 @@
         <v>0.393121093071121</v>
       </c>
       <c r="D9" t="n">
+        <v>0.37990538035527</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.606618681027554</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.404741669455715</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.296470179474793</v>
+      </c>
+      <c r="H9" t="n">
         <v>0.282669471326983</v>
       </c>
-      <c r="E9" t="n">
+      <c r="I9" t="n">
         <v>0.376571407830385</v>
       </c>
-      <c r="F9" t="n">
+      <c r="J9" t="n">
         <v>0.32600471502799</v>
       </c>
-      <c r="G9" t="n">
-        <v>0.662536527281334</v>
-      </c>
-      <c r="H9" t="n">
+      <c r="K9" t="n">
+        <v>0.665815836537034</v>
+      </c>
+      <c r="L9" t="n">
         <v>0.698489352155402</v>
       </c>
-      <c r="I9" t="n">
+      <c r="M9" t="n">
         <v>0.362475436951784</v>
       </c>
-      <c r="J9" t="n">
+      <c r="N9" t="n">
         <v>0.535384805366787</v>
       </c>
-      <c r="K9" t="n">
+      <c r="O9" t="n">
         <v>0.265617828927838</v>
       </c>
     </row>

--- a/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
@@ -470,10 +470,10 @@
         <v>15</v>
       </c>
       <c r="B2" t="n">
-        <v>0.556007222541788</v>
+        <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.392706735271895</v>
+        <v>0.393016824439431</v>
       </c>
       <c r="D2" t="n">
         <v>0.583987178202389</v>
@@ -517,10 +517,10 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>0.50312291438834</v>
+        <v>0.503247309719211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316198486427608</v>
+        <v>0.316231358914818</v>
       </c>
       <c r="D3" t="n">
         <v>0.513014491525721</v>
@@ -564,10 +564,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>0.680881448179833</v>
+        <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616567982061628</v>
+        <v>0.616668833076667</v>
       </c>
       <c r="D4" t="n">
         <v>0.680987204503282</v>
@@ -611,10 +611,10 @@
         <v>18</v>
       </c>
       <c r="B5" t="n">
-        <v>0.704965329416964</v>
+        <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501352982535347</v>
+        <v>0.501381130731594</v>
       </c>
       <c r="D5" t="n">
         <v>0.787483813023996</v>
@@ -785,10 +785,10 @@
         <v>22</v>
       </c>
       <c r="B9" t="n">
-        <v>0.410626908494325</v>
+        <v>0.410629863862209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.393121093071121</v>
+        <v>0.393225264575894</v>
       </c>
       <c r="D9" t="n">
         <v>0.37990538035527</v>
@@ -800,7 +800,7 @@
         <v>0.404741669455715</v>
       </c>
       <c r="G9" t="n">
-        <v>0.296470179474793</v>
+        <v>0.296470179474792</v>
       </c>
       <c r="H9" t="n">
         <v>0.282669471326983</v>

--- a/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
+++ b/xlsx/country_comparison/radical_redistr_pol_positive.xlsx
@@ -12,15 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">$ bold('All')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Millionaires</t>
   </si>
   <si>
     <t xml:space="preserve">Europe Non-voters</t>
@@ -461,369 +458,342 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="n">
         <v>0.556565037682828</v>
       </c>
       <c r="C2" t="n">
-        <v>0.393016824439431</v>
+        <v>0.584715470382293</v>
       </c>
       <c r="D2" t="n">
-        <v>0.583987178202389</v>
+        <v>0.809444964341555</v>
       </c>
       <c r="E2" t="n">
-        <v>0.809444964341555</v>
+        <v>0.502893565174609</v>
       </c>
       <c r="F2" t="n">
-        <v>0.502893565174609</v>
+        <v>0.484386429576709</v>
       </c>
       <c r="G2" t="n">
-        <v>0.484386429576709</v>
+        <v>0.356105750421195</v>
       </c>
       <c r="H2" t="n">
-        <v>0.356105750421195</v>
+        <v>0.508432438341536</v>
       </c>
       <c r="I2" t="n">
-        <v>0.508432438341536</v>
+        <v>0.451519556659133</v>
       </c>
       <c r="J2" t="n">
-        <v>0.451519556659133</v>
+        <v>0.677827112481047</v>
       </c>
       <c r="K2" t="n">
-        <v>0.677827112481047</v>
+        <v>0.743498584988873</v>
       </c>
       <c r="L2" t="n">
-        <v>0.743498584988873</v>
+        <v>0.503741905167505</v>
       </c>
       <c r="M2" t="n">
-        <v>0.503741905167505</v>
+        <v>0.637096655800029</v>
       </c>
       <c r="N2" t="n">
-        <v>0.637096655800029</v>
-      </c>
-      <c r="O2" t="n">
         <v>0.373993319775201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="n">
         <v>0.503247309719211</v>
       </c>
       <c r="C3" t="n">
-        <v>0.316231358914818</v>
+        <v>0.513850437188526</v>
       </c>
       <c r="D3" t="n">
-        <v>0.513014491525721</v>
+        <v>0.71931115965366</v>
       </c>
       <c r="E3" t="n">
-        <v>0.71931115965366</v>
+        <v>0.495264748486105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.495264748486105</v>
+        <v>0.440316456384772</v>
       </c>
       <c r="G3" t="n">
-        <v>0.440316456384772</v>
+        <v>0.34215953895184</v>
       </c>
       <c r="H3" t="n">
-        <v>0.34215953895184</v>
+        <v>0.455068700122256</v>
       </c>
       <c r="I3" t="n">
-        <v>0.455068700122256</v>
+        <v>0.306824263084082</v>
       </c>
       <c r="J3" t="n">
-        <v>0.306824263084082</v>
+        <v>0.671355992475847</v>
       </c>
       <c r="K3" t="n">
-        <v>0.671355992475847</v>
+        <v>0.73716679715381</v>
       </c>
       <c r="L3" t="n">
-        <v>0.73716679715381</v>
+        <v>0.455679906453223</v>
       </c>
       <c r="M3" t="n">
-        <v>0.455679906453223</v>
+        <v>0.566496834134014</v>
       </c>
       <c r="N3" t="n">
-        <v>0.566496834134014</v>
-      </c>
-      <c r="O3" t="n">
         <v>0.339067925103543</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="n">
         <v>0.680815013747804</v>
       </c>
       <c r="C4" t="n">
-        <v>0.616668833076667</v>
+        <v>0.680673282454082</v>
       </c>
       <c r="D4" t="n">
-        <v>0.680987204503282</v>
+        <v>0.831184500933943</v>
       </c>
       <c r="E4" t="n">
-        <v>0.831184500933943</v>
+        <v>0.695788344040076</v>
       </c>
       <c r="F4" t="n">
-        <v>0.695788344040076</v>
+        <v>0.538162773640089</v>
       </c>
       <c r="G4" t="n">
-        <v>0.538162773640089</v>
+        <v>0.743644347389163</v>
       </c>
       <c r="H4" t="n">
-        <v>0.743644347389163</v>
+        <v>0.814701212857562</v>
       </c>
       <c r="I4" t="n">
-        <v>0.814701212857562</v>
+        <v>0.757048871605567</v>
       </c>
       <c r="J4" t="n">
-        <v>0.757048871605567</v>
+        <v>0.721853509181885</v>
       </c>
       <c r="K4" t="n">
-        <v>0.721853509181885</v>
+        <v>0.703520370125625</v>
       </c>
       <c r="L4" t="n">
-        <v>0.703520370125625</v>
+        <v>0.671270631778761</v>
       </c>
       <c r="M4" t="n">
-        <v>0.671270631778761</v>
+        <v>0.776836935461012</v>
       </c>
       <c r="N4" t="n">
-        <v>0.776836935461012</v>
-      </c>
-      <c r="O4" t="n">
         <v>0.425661149175785</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
         <v>0.704960018034767</v>
       </c>
       <c r="C5" t="n">
-        <v>0.501381130731594</v>
+        <v>0.787954017306878</v>
       </c>
       <c r="D5" t="n">
-        <v>0.787483813023996</v>
+        <v>0.876770446811719</v>
       </c>
       <c r="E5" t="n">
-        <v>0.876770446811719</v>
+        <v>0.74609538238357</v>
       </c>
       <c r="F5" t="n">
-        <v>0.74609538238357</v>
+        <v>0.664878143534609</v>
       </c>
       <c r="G5" t="n">
-        <v>0.664878143534609</v>
+        <v>0.7335602187152</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7335602187152</v>
+        <v>0.725922165695082</v>
       </c>
       <c r="I5" t="n">
-        <v>0.725922165695082</v>
+        <v>0.685126203737904</v>
       </c>
       <c r="J5" t="n">
-        <v>0.685126203737904</v>
+        <v>0.92816201896394</v>
       </c>
       <c r="K5" t="n">
-        <v>0.92816201896394</v>
+        <v>0.938466265662205</v>
       </c>
       <c r="L5" t="n">
-        <v>0.938466265662205</v>
+        <v>0.688883535477258</v>
       </c>
       <c r="M5" t="n">
-        <v>0.688883535477258</v>
+        <v>0.68963486840272</v>
       </c>
       <c r="N5" t="n">
-        <v>0.68963486840272</v>
-      </c>
-      <c r="O5" t="n">
         <v>0.436451458600216</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="n">
         <v>0.675595447215337</v>
       </c>
       <c r="C6" t="n">
-        <v>0.523930159271177</v>
+        <v>0.70986778173764</v>
       </c>
       <c r="D6" t="n">
-        <v>0.709363981944143</v>
+        <v>0.892471876813608</v>
       </c>
       <c r="E6" t="n">
-        <v>0.892471876813608</v>
+        <v>0.637051467662211</v>
       </c>
       <c r="F6" t="n">
-        <v>0.637051467662211</v>
+        <v>0.578161277543308</v>
       </c>
       <c r="G6" t="n">
-        <v>0.578161277543308</v>
+        <v>0.433349195600366</v>
       </c>
       <c r="H6" t="n">
-        <v>0.433349195600366</v>
+        <v>0.696851480613757</v>
       </c>
       <c r="I6" t="n">
-        <v>0.696851480613757</v>
+        <v>0.583790255087382</v>
       </c>
       <c r="J6" t="n">
-        <v>0.583790255087382</v>
+        <v>0.729122438104651</v>
       </c>
       <c r="K6" t="n">
-        <v>0.729122438104651</v>
+        <v>0.741985444624183</v>
       </c>
       <c r="L6" t="n">
-        <v>0.741985444624183</v>
+        <v>0.641824096726743</v>
       </c>
       <c r="M6" t="n">
-        <v>0.641824096726743</v>
+        <v>0.834461320073758</v>
       </c>
       <c r="N6" t="n">
-        <v>0.834461320073758</v>
-      </c>
-      <c r="O6" t="n">
         <v>0.474126518973143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B7" t="n">
         <v>0.364717906507653</v>
       </c>
       <c r="C7" t="n">
-        <v>0.301242387158432</v>
+        <v>0.348888186886583</v>
       </c>
       <c r="D7" t="n">
-        <v>0.347757564445013</v>
+        <v>0.612564469882184</v>
       </c>
       <c r="E7" t="n">
-        <v>0.612564469882184</v>
+        <v>0.329076922032927</v>
       </c>
       <c r="F7" t="n">
-        <v>0.329076922032927</v>
+        <v>0.266032348749018</v>
       </c>
       <c r="G7" t="n">
-        <v>0.266032348749018</v>
+        <v>0.163327499246366</v>
       </c>
       <c r="H7" t="n">
-        <v>0.163327499246366</v>
+        <v>0.313179598308858</v>
       </c>
       <c r="I7" t="n">
-        <v>0.313179598308858</v>
-      </c>
-      <c r="J7" t="n">
         <v>0.218483573122562</v>
       </c>
+      <c r="J7"/>
       <c r="K7"/>
-      <c r="L7"/>
+      <c r="L7" t="n">
+        <v>0.283095421815601</v>
+      </c>
       <c r="M7" t="n">
-        <v>0.283095421815601</v>
+        <v>0.52122515690493</v>
       </c>
       <c r="N7" t="n">
-        <v>0.52122515690493</v>
-      </c>
-      <c r="O7" t="n">
         <v>0.27084855688435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B8" t="n">
         <v>0.347853243460036</v>
       </c>
       <c r="C8" t="n">
-        <v>0.262527011404327</v>
+        <v>0.394261110370281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.393011358029993</v>
+        <v>0.540846531529226</v>
       </c>
       <c r="E8" t="n">
-        <v>0.540846531529226</v>
+        <v>0.30076097129752</v>
       </c>
       <c r="F8" t="n">
-        <v>0.30076097129752</v>
-      </c>
-      <c r="G8" t="n">
         <v>0.236110214107178</v>
       </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
-      <c r="L8"/>
+      <c r="L8" t="n">
+        <v>0.311745273790548</v>
+      </c>
       <c r="M8" t="n">
-        <v>0.311745273790548</v>
+        <v>0.450524011973634</v>
       </c>
       <c r="N8" t="n">
-        <v>0.450524011973634</v>
-      </c>
-      <c r="O8" t="n">
         <v>0.173904958357855</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="n">
         <v>0.410629863862209</v>
       </c>
       <c r="C9" t="n">
-        <v>0.393225264575894</v>
+        <v>0.380980276520636</v>
       </c>
       <c r="D9" t="n">
-        <v>0.37990538035527</v>
+        <v>0.606618681027554</v>
       </c>
       <c r="E9" t="n">
-        <v>0.606618681027554</v>
+        <v>0.404741669455715</v>
       </c>
       <c r="F9" t="n">
-        <v>0.404741669455715</v>
+        <v>0.296470179474792</v>
       </c>
       <c r="G9" t="n">
-        <v>0.296470179474792</v>
+        <v>0.282669471326983</v>
       </c>
       <c r="H9" t="n">
-        <v>0.282669471326983</v>
+        <v>0.376571407830385</v>
       </c>
       <c r="I9" t="n">
-        <v>0.376571407830385</v>
+        <v>0.32600471502799</v>
       </c>
       <c r="J9" t="n">
-        <v>0.32600471502799</v>
+        <v>0.665815836537034</v>
       </c>
       <c r="K9" t="n">
-        <v>0.665815836537034</v>
+        <v>0.698489352155402</v>
       </c>
       <c r="L9" t="n">
-        <v>0.698489352155402</v>
+        <v>0.362475436951784</v>
       </c>
       <c r="M9" t="n">
-        <v>0.362475436951784</v>
+        <v>0.535384805366787</v>
       </c>
       <c r="N9" t="n">
-        <v>0.535384805366787</v>
-      </c>
-      <c r="O9" t="n">
         <v>0.265617828927838</v>
       </c>
     </row>
